--- a/Multiknapsack/results/random_recourse/summary.xlsx
+++ b/Multiknapsack/results/random_recourse/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagan024\Desktop\CCG-RODDU\Multiknapsack\results\random_recourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36999BE-E5B4-417B-B0F6-24DF7A274553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E70B7CA-5334-4DE5-941C-C62EDC0EF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>M</t>
   </si>
@@ -68,28 +68,28 @@
     <t># cuts</t>
   </si>
   <si>
-    <t>N/A (10)</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>140.8(9)</t>
   </si>
   <si>
-    <t>2295.8(4)</t>
-  </si>
-  <si>
-    <t>3454.1(9)</t>
-  </si>
-  <si>
     <t>740.6(8)</t>
   </si>
   <si>
     <t>1015.0(4)</t>
   </si>
   <si>
-    <t>2308.9(8)</t>
+    <t>- (10)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3018.2(9)</t>
+  </si>
+  <si>
+    <t>1432.4(5)</t>
+  </si>
+  <si>
+    <t>2567.8(8)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,10 @@
         <v>10</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2">
+        <f>(E3-G3)/E3</f>
+        <v>0.46601941747572817</v>
+      </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -568,7 +571,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M20" si="0">(E4-G4)/E4</f>
+        <v>-0.55555555555555547</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -606,7 +612,10 @@
         <v>10</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.36666666666666653</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -623,7 +632,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4">
         <v>72.900000000000006</v>
@@ -644,7 +653,10 @@
         <v>10</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <f>(740.6-G6)/740.6</f>
+        <v>0.97569538212260332</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -682,7 +694,10 @@
         <v>10</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.45614035087719307</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -720,7 +735,10 @@
         <v>10</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.27777777777777773</v>
+      </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -737,28 +755,31 @@
         <v>0.25</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4">
-        <v>959.3</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
         <v>11</v>
       </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>10</v>
-      </c>
       <c r="K9" s="4">
         <v>20</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <f>(140-1432)/140</f>
+        <v>-9.2285714285714278</v>
+      </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,7 +817,10 @@
         <v>20</v>
       </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59972489683631358</v>
+      </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -834,7 +858,10 @@
         <v>20</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41691842900302117</v>
+      </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,7 +899,10 @@
         <v>20</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.84410646387833E-2</v>
+      </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -910,7 +940,10 @@
         <v>20</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36222222222222222</v>
+      </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -948,7 +981,10 @@
         <v>20</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61189801699716717</v>
+      </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,7 +1001,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
         <v>611.1</v>
@@ -986,7 +1022,10 @@
         <v>20</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <f>(1015-G15)/1015</f>
+        <v>0.93399014778325118</v>
+      </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1024,7 +1063,10 @@
         <v>20</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22652468538238132</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1062,7 +1104,10 @@
         <v>20</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6376724655068986</v>
+      </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1079,25 +1124,29 @@
         <v>0.25</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4">
-        <v>1215.9000000000001</v>
+        <v>1594.2</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="4">
         <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <f>(3600-G18)/3600</f>
+        <v>0.5571666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1114,25 +1163,29 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1493</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="4">
-        <v>1212.2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>19</v>
-      </c>
       <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="J19" s="4">
-        <v>18</v>
+      <c r="J19" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K19" s="4">
         <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <f>(3600-G19)/3600</f>
+        <v>0.58527777777777779</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1149,13 +1202,13 @@
         <v>0.75</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="4">
-        <v>1106.8</v>
+        <v>1189.3</v>
       </c>
       <c r="H20" s="4">
         <v>17.5</v>
@@ -1168,6 +1221,10 @@
       </c>
       <c r="K20" s="4">
         <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <f>(3600-G20)/3600</f>
+        <v>0.66963888888888878</v>
       </c>
     </row>
   </sheetData>
